--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/satisfaction/run_no=8.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/satisfaction/run_no=8.xlsx
@@ -534,58 +534,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>627</v>
+        <v>375</v>
       </c>
       <c r="C2" t="n">
-        <v>566</v>
+        <v>481</v>
       </c>
       <c r="D2" t="n">
-        <v>605</v>
+        <v>432</v>
       </c>
       <c r="E2" t="n">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>662</v>
+        <v>417</v>
       </c>
       <c r="G2" t="n">
-        <v>678</v>
+        <v>439</v>
       </c>
       <c r="H2" t="n">
-        <v>607</v>
+        <v>417</v>
       </c>
       <c r="I2" t="n">
-        <v>636</v>
+        <v>324</v>
       </c>
       <c r="J2" t="n">
-        <v>528</v>
+        <v>382</v>
       </c>
       <c r="K2" t="n">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="L2" t="n">
-        <v>468</v>
+        <v>423</v>
       </c>
       <c r="M2" t="n">
-        <v>593</v>
+        <v>400</v>
       </c>
       <c r="N2" t="n">
-        <v>283</v>
+        <v>344</v>
       </c>
       <c r="O2" t="n">
-        <v>482</v>
+        <v>371</v>
       </c>
       <c r="P2" t="n">
-        <v>628</v>
+        <v>376</v>
       </c>
       <c r="Q2" t="n">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="R2" t="n">
-        <v>8220</v>
+        <v>5979</v>
       </c>
       <c r="S2" t="n">
-        <v>678</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3">
@@ -595,58 +595,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604</v>
+        <v>346</v>
       </c>
       <c r="C3" t="n">
-        <v>539</v>
+        <v>434</v>
       </c>
       <c r="D3" t="n">
-        <v>565</v>
+        <v>404</v>
       </c>
       <c r="E3" t="n">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="F3" t="n">
-        <v>624</v>
+        <v>400</v>
       </c>
       <c r="G3" t="n">
-        <v>635</v>
+        <v>446</v>
       </c>
       <c r="H3" t="n">
-        <v>547</v>
+        <v>385</v>
       </c>
       <c r="I3" t="n">
-        <v>623</v>
+        <v>417</v>
       </c>
       <c r="J3" t="n">
-        <v>496</v>
+        <v>390</v>
       </c>
       <c r="K3" t="n">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="L3" t="n">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M3" t="n">
-        <v>552</v>
+        <v>491</v>
       </c>
       <c r="N3" t="n">
-        <v>330</v>
+        <v>438</v>
       </c>
       <c r="O3" t="n">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="P3" t="n">
-        <v>614</v>
+        <v>391</v>
       </c>
       <c r="Q3" t="n">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="R3" t="n">
-        <v>7891</v>
+        <v>6161</v>
       </c>
       <c r="S3" t="n">
-        <v>635</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4">
@@ -656,58 +656,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>627</v>
+        <v>415</v>
       </c>
       <c r="C4" t="n">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="D4" t="n">
-        <v>605</v>
+        <v>491</v>
       </c>
       <c r="E4" t="n">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="F4" t="n">
-        <v>662</v>
+        <v>492</v>
       </c>
       <c r="G4" t="n">
-        <v>678</v>
+        <v>512</v>
       </c>
       <c r="H4" t="n">
-        <v>607</v>
+        <v>463</v>
       </c>
       <c r="I4" t="n">
-        <v>636</v>
+        <v>456</v>
       </c>
       <c r="J4" t="n">
-        <v>528</v>
+        <v>418</v>
       </c>
       <c r="K4" t="n">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="L4" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M4" t="n">
-        <v>593</v>
+        <v>532</v>
       </c>
       <c r="N4" t="n">
-        <v>283</v>
+        <v>501</v>
       </c>
       <c r="O4" t="n">
-        <v>482</v>
+        <v>394</v>
       </c>
       <c r="P4" t="n">
-        <v>628</v>
+        <v>417</v>
       </c>
       <c r="Q4" t="n">
-        <v>283</v>
+        <v>394</v>
       </c>
       <c r="R4" t="n">
-        <v>8220</v>
+        <v>6970</v>
       </c>
       <c r="S4" t="n">
-        <v>678</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5">
@@ -717,58 +717,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>604</v>
+        <v>422</v>
       </c>
       <c r="C5" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D5" t="n">
-        <v>565</v>
+        <v>467</v>
       </c>
       <c r="E5" t="n">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="F5" t="n">
-        <v>624</v>
+        <v>500</v>
       </c>
       <c r="G5" t="n">
-        <v>635</v>
+        <v>528</v>
       </c>
       <c r="H5" t="n">
-        <v>547</v>
+        <v>481</v>
       </c>
       <c r="I5" t="n">
-        <v>623</v>
+        <v>397</v>
       </c>
       <c r="J5" t="n">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="K5" t="n">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="L5" t="n">
-        <v>451</v>
+        <v>537</v>
       </c>
       <c r="M5" t="n">
-        <v>552</v>
+        <v>492</v>
       </c>
       <c r="N5" t="n">
-        <v>330</v>
+        <v>432</v>
       </c>
       <c r="O5" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P5" t="n">
-        <v>614</v>
+        <v>464</v>
       </c>
       <c r="Q5" t="n">
-        <v>330</v>
+        <v>397</v>
       </c>
       <c r="R5" t="n">
-        <v>7891</v>
+        <v>7146</v>
       </c>
       <c r="S5" t="n">
-        <v>635</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6">
@@ -778,58 +778,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>569</v>
+        <v>415</v>
       </c>
       <c r="C6" t="n">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D6" t="n">
-        <v>572</v>
+        <v>491</v>
       </c>
       <c r="E6" t="n">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="F6" t="n">
-        <v>612</v>
+        <v>492</v>
       </c>
       <c r="G6" t="n">
-        <v>628</v>
+        <v>512</v>
       </c>
       <c r="H6" t="n">
-        <v>596</v>
+        <v>463</v>
       </c>
       <c r="I6" t="n">
-        <v>536</v>
+        <v>456</v>
       </c>
       <c r="J6" t="n">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K6" t="n">
-        <v>337</v>
+        <v>436</v>
       </c>
       <c r="L6" t="n">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="M6" t="n">
-        <v>588</v>
+        <v>532</v>
       </c>
       <c r="N6" t="n">
-        <v>247</v>
+        <v>501</v>
       </c>
       <c r="O6" t="n">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="P6" t="n">
-        <v>528</v>
+        <v>417</v>
       </c>
       <c r="Q6" t="n">
-        <v>247</v>
+        <v>394</v>
       </c>
       <c r="R6" t="n">
-        <v>7442</v>
+        <v>6970</v>
       </c>
       <c r="S6" t="n">
-        <v>628</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7">
@@ -839,58 +839,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>627</v>
+        <v>415</v>
       </c>
       <c r="C7" t="n">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="D7" t="n">
-        <v>605</v>
+        <v>491</v>
       </c>
       <c r="E7" t="n">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="F7" t="n">
-        <v>662</v>
+        <v>492</v>
       </c>
       <c r="G7" t="n">
-        <v>678</v>
+        <v>512</v>
       </c>
       <c r="H7" t="n">
-        <v>607</v>
+        <v>463</v>
       </c>
       <c r="I7" t="n">
-        <v>636</v>
+        <v>456</v>
       </c>
       <c r="J7" t="n">
-        <v>528</v>
+        <v>418</v>
       </c>
       <c r="K7" t="n">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="L7" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M7" t="n">
-        <v>593</v>
+        <v>532</v>
       </c>
       <c r="N7" t="n">
-        <v>283</v>
+        <v>501</v>
       </c>
       <c r="O7" t="n">
-        <v>482</v>
+        <v>394</v>
       </c>
       <c r="P7" t="n">
-        <v>628</v>
+        <v>417</v>
       </c>
       <c r="Q7" t="n">
-        <v>283</v>
+        <v>394</v>
       </c>
       <c r="R7" t="n">
-        <v>8220</v>
+        <v>6970</v>
       </c>
       <c r="S7" t="n">
-        <v>678</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8">
@@ -900,58 +900,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>604</v>
+        <v>422</v>
       </c>
       <c r="C8" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D8" t="n">
-        <v>565</v>
+        <v>467</v>
       </c>
       <c r="E8" t="n">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="F8" t="n">
-        <v>624</v>
+        <v>500</v>
       </c>
       <c r="G8" t="n">
-        <v>635</v>
+        <v>528</v>
       </c>
       <c r="H8" t="n">
-        <v>547</v>
+        <v>481</v>
       </c>
       <c r="I8" t="n">
-        <v>623</v>
+        <v>397</v>
       </c>
       <c r="J8" t="n">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="K8" t="n">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="L8" t="n">
-        <v>451</v>
+        <v>537</v>
       </c>
       <c r="M8" t="n">
-        <v>552</v>
+        <v>492</v>
       </c>
       <c r="N8" t="n">
-        <v>330</v>
+        <v>432</v>
       </c>
       <c r="O8" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P8" t="n">
-        <v>614</v>
+        <v>464</v>
       </c>
       <c r="Q8" t="n">
-        <v>330</v>
+        <v>397</v>
       </c>
       <c r="R8" t="n">
-        <v>7891</v>
+        <v>7146</v>
       </c>
       <c r="S8" t="n">
-        <v>635</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9">
@@ -961,58 +961,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>569</v>
+        <v>415</v>
       </c>
       <c r="C9" t="n">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D9" t="n">
-        <v>572</v>
+        <v>491</v>
       </c>
       <c r="E9" t="n">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="F9" t="n">
-        <v>612</v>
+        <v>492</v>
       </c>
       <c r="G9" t="n">
-        <v>628</v>
+        <v>512</v>
       </c>
       <c r="H9" t="n">
-        <v>596</v>
+        <v>463</v>
       </c>
       <c r="I9" t="n">
-        <v>536</v>
+        <v>456</v>
       </c>
       <c r="J9" t="n">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="K9" t="n">
-        <v>337</v>
+        <v>436</v>
       </c>
       <c r="L9" t="n">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="M9" t="n">
-        <v>588</v>
+        <v>532</v>
       </c>
       <c r="N9" t="n">
-        <v>247</v>
+        <v>501</v>
       </c>
       <c r="O9" t="n">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="P9" t="n">
-        <v>528</v>
+        <v>417</v>
       </c>
       <c r="Q9" t="n">
-        <v>247</v>
+        <v>394</v>
       </c>
       <c r="R9" t="n">
-        <v>7442</v>
+        <v>6970</v>
       </c>
       <c r="S9" t="n">
-        <v>628</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10">
@@ -1022,58 +1022,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>636</v>
+        <v>229</v>
       </c>
       <c r="C10" t="n">
-        <v>578</v>
+        <v>313</v>
       </c>
       <c r="D10" t="n">
-        <v>630</v>
+        <v>254</v>
       </c>
       <c r="E10" t="n">
-        <v>461</v>
+        <v>294</v>
       </c>
       <c r="F10" t="n">
-        <v>679</v>
+        <v>289</v>
       </c>
       <c r="G10" t="n">
-        <v>697</v>
+        <v>361</v>
       </c>
       <c r="H10" t="n">
-        <v>662</v>
+        <v>275</v>
       </c>
       <c r="I10" t="n">
-        <v>573</v>
+        <v>338</v>
       </c>
       <c r="J10" t="n">
-        <v>435</v>
+        <v>279</v>
       </c>
       <c r="K10" t="n">
-        <v>346</v>
+        <v>284</v>
       </c>
       <c r="L10" t="n">
-        <v>491</v>
+        <v>384</v>
       </c>
       <c r="M10" t="n">
-        <v>619</v>
+        <v>388</v>
       </c>
       <c r="N10" t="n">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="O10" t="n">
-        <v>409</v>
+        <v>314</v>
       </c>
       <c r="P10" t="n">
-        <v>561</v>
+        <v>301</v>
       </c>
       <c r="Q10" t="n">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="R10" t="n">
-        <v>8036</v>
+        <v>4648</v>
       </c>
       <c r="S10" t="n">
-        <v>697</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11">
@@ -1083,58 +1083,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>538</v>
+        <v>243</v>
       </c>
       <c r="C11" t="n">
-        <v>493</v>
+        <v>334</v>
       </c>
       <c r="D11" t="n">
-        <v>488</v>
+        <v>265</v>
       </c>
       <c r="E11" t="n">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="F11" t="n">
-        <v>546</v>
+        <v>315</v>
       </c>
       <c r="G11" t="n">
-        <v>587</v>
+        <v>360</v>
       </c>
       <c r="H11" t="n">
-        <v>470</v>
+        <v>291</v>
       </c>
       <c r="I11" t="n">
-        <v>647</v>
+        <v>390</v>
       </c>
       <c r="J11" t="n">
-        <v>535</v>
+        <v>399</v>
       </c>
       <c r="K11" t="n">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="L11" t="n">
-        <v>397</v>
+        <v>472</v>
       </c>
       <c r="M11" t="n">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="N11" t="n">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="O11" t="n">
-        <v>513</v>
+        <v>424</v>
       </c>
       <c r="P11" t="n">
-        <v>642</v>
+        <v>396</v>
       </c>
       <c r="Q11" t="n">
-        <v>347</v>
+        <v>243</v>
       </c>
       <c r="R11" t="n">
-        <v>7492</v>
+        <v>5482</v>
       </c>
       <c r="S11" t="n">
-        <v>647</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12">
@@ -1144,58 +1144,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>627</v>
+        <v>415</v>
       </c>
       <c r="C12" t="n">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="D12" t="n">
-        <v>605</v>
+        <v>491</v>
       </c>
       <c r="E12" t="n">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="F12" t="n">
-        <v>662</v>
+        <v>492</v>
       </c>
       <c r="G12" t="n">
-        <v>678</v>
+        <v>512</v>
       </c>
       <c r="H12" t="n">
-        <v>607</v>
+        <v>463</v>
       </c>
       <c r="I12" t="n">
-        <v>636</v>
+        <v>456</v>
       </c>
       <c r="J12" t="n">
-        <v>528</v>
+        <v>418</v>
       </c>
       <c r="K12" t="n">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="L12" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M12" t="n">
-        <v>593</v>
+        <v>532</v>
       </c>
       <c r="N12" t="n">
-        <v>283</v>
+        <v>501</v>
       </c>
       <c r="O12" t="n">
-        <v>482</v>
+        <v>394</v>
       </c>
       <c r="P12" t="n">
-        <v>628</v>
+        <v>417</v>
       </c>
       <c r="Q12" t="n">
-        <v>283</v>
+        <v>394</v>
       </c>
       <c r="R12" t="n">
-        <v>8220</v>
+        <v>6970</v>
       </c>
       <c r="S12" t="n">
-        <v>678</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13">
@@ -1205,58 +1205,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>567</v>
+        <v>378</v>
       </c>
       <c r="C13" t="n">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="D13" t="n">
-        <v>565</v>
+        <v>435</v>
       </c>
       <c r="E13" t="n">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F13" t="n">
-        <v>607</v>
+        <v>449</v>
       </c>
       <c r="G13" t="n">
-        <v>610</v>
+        <v>478</v>
       </c>
       <c r="H13" t="n">
-        <v>572</v>
+        <v>430</v>
       </c>
       <c r="I13" t="n">
-        <v>550</v>
+        <v>418</v>
       </c>
       <c r="J13" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="K13" t="n">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="L13" t="n">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="M13" t="n">
-        <v>582</v>
+        <v>497</v>
       </c>
       <c r="N13" t="n">
-        <v>210</v>
+        <v>478</v>
       </c>
       <c r="O13" t="n">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="P13" t="n">
-        <v>531</v>
+        <v>432</v>
       </c>
       <c r="Q13" t="n">
-        <v>210</v>
+        <v>378</v>
       </c>
       <c r="R13" t="n">
-        <v>7448</v>
+        <v>6718</v>
       </c>
       <c r="S13" t="n">
-        <v>610</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14">
@@ -1266,58 +1266,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>610</v>
+        <v>415</v>
       </c>
       <c r="C14" t="n">
-        <v>556</v>
+        <v>520</v>
       </c>
       <c r="D14" t="n">
-        <v>567</v>
+        <v>491</v>
       </c>
       <c r="E14" t="n">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="F14" t="n">
-        <v>628</v>
+        <v>492</v>
       </c>
       <c r="G14" t="n">
-        <v>662</v>
+        <v>512</v>
       </c>
       <c r="H14" t="n">
-        <v>551</v>
+        <v>463</v>
       </c>
       <c r="I14" t="n">
-        <v>715</v>
+        <v>456</v>
       </c>
       <c r="J14" t="n">
-        <v>586</v>
+        <v>418</v>
       </c>
       <c r="K14" t="n">
-        <v>499</v>
+        <v>436</v>
       </c>
       <c r="L14" t="n">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="M14" t="n">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="N14" t="n">
-        <v>420</v>
+        <v>501</v>
       </c>
       <c r="O14" t="n">
-        <v>557</v>
+        <v>394</v>
       </c>
       <c r="P14" t="n">
-        <v>712</v>
+        <v>417</v>
       </c>
       <c r="Q14" t="n">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="R14" t="n">
-        <v>8480</v>
+        <v>6970</v>
       </c>
       <c r="S14" t="n">
-        <v>715</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15">
@@ -1327,58 +1327,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="C15" t="n">
-        <v>484</v>
+        <v>520</v>
       </c>
       <c r="D15" t="n">
+        <v>491</v>
+      </c>
+      <c r="E15" t="n">
+        <v>452</v>
+      </c>
+      <c r="F15" t="n">
+        <v>492</v>
+      </c>
+      <c r="G15" t="n">
+        <v>512</v>
+      </c>
+      <c r="H15" t="n">
+        <v>463</v>
+      </c>
+      <c r="I15" t="n">
+        <v>456</v>
+      </c>
+      <c r="J15" t="n">
+        <v>418</v>
+      </c>
+      <c r="K15" t="n">
+        <v>436</v>
+      </c>
+      <c r="L15" t="n">
+        <v>471</v>
+      </c>
+      <c r="M15" t="n">
+        <v>532</v>
+      </c>
+      <c r="N15" t="n">
         <v>501</v>
       </c>
-      <c r="E15" t="n">
-        <v>376</v>
-      </c>
-      <c r="F15" t="n">
-        <v>542</v>
-      </c>
-      <c r="G15" t="n">
-        <v>564</v>
-      </c>
-      <c r="H15" t="n">
-        <v>509</v>
-      </c>
-      <c r="I15" t="n">
-        <v>572</v>
-      </c>
-      <c r="J15" t="n">
-        <v>474</v>
-      </c>
-      <c r="K15" t="n">
-        <v>415</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="O15" t="n">
+        <v>394</v>
+      </c>
+      <c r="P15" t="n">
         <v>417</v>
       </c>
-      <c r="M15" t="n">
-        <v>511</v>
-      </c>
-      <c r="N15" t="n">
-        <v>270</v>
-      </c>
-      <c r="O15" t="n">
-        <v>441</v>
-      </c>
-      <c r="P15" t="n">
-        <v>556</v>
-      </c>
       <c r="Q15" t="n">
-        <v>270</v>
+        <v>394</v>
       </c>
       <c r="R15" t="n">
-        <v>7138</v>
+        <v>6970</v>
       </c>
       <c r="S15" t="n">
-        <v>572</v>
+        <v>532</v>
       </c>
     </row>
     <row r="16">
@@ -1388,58 +1388,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>627</v>
+        <v>415</v>
       </c>
       <c r="C16" t="n">
-        <v>566</v>
+        <v>520</v>
       </c>
       <c r="D16" t="n">
-        <v>605</v>
+        <v>491</v>
       </c>
       <c r="E16" t="n">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="F16" t="n">
-        <v>662</v>
+        <v>492</v>
       </c>
       <c r="G16" t="n">
-        <v>678</v>
+        <v>512</v>
       </c>
       <c r="H16" t="n">
-        <v>607</v>
+        <v>463</v>
       </c>
       <c r="I16" t="n">
-        <v>636</v>
+        <v>456</v>
       </c>
       <c r="J16" t="n">
-        <v>528</v>
+        <v>418</v>
       </c>
       <c r="K16" t="n">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="L16" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M16" t="n">
-        <v>593</v>
+        <v>532</v>
       </c>
       <c r="N16" t="n">
-        <v>283</v>
+        <v>501</v>
       </c>
       <c r="O16" t="n">
-        <v>482</v>
+        <v>394</v>
       </c>
       <c r="P16" t="n">
-        <v>628</v>
+        <v>417</v>
       </c>
       <c r="Q16" t="n">
-        <v>283</v>
+        <v>394</v>
       </c>
       <c r="R16" t="n">
-        <v>8220</v>
+        <v>6970</v>
       </c>
       <c r="S16" t="n">
-        <v>678</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17">
@@ -1449,58 +1449,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>567</v>
+        <v>415</v>
       </c>
       <c r="C17" t="n">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="D17" t="n">
-        <v>565</v>
+        <v>491</v>
       </c>
       <c r="E17" t="n">
+        <v>452</v>
+      </c>
+      <c r="F17" t="n">
+        <v>492</v>
+      </c>
+      <c r="G17" t="n">
+        <v>512</v>
+      </c>
+      <c r="H17" t="n">
+        <v>463</v>
+      </c>
+      <c r="I17" t="n">
+        <v>456</v>
+      </c>
+      <c r="J17" t="n">
+        <v>418</v>
+      </c>
+      <c r="K17" t="n">
+        <v>436</v>
+      </c>
+      <c r="L17" t="n">
+        <v>471</v>
+      </c>
+      <c r="M17" t="n">
+        <v>532</v>
+      </c>
+      <c r="N17" t="n">
+        <v>501</v>
+      </c>
+      <c r="O17" t="n">
+        <v>394</v>
+      </c>
+      <c r="P17" t="n">
         <v>417</v>
       </c>
-      <c r="F17" t="n">
-        <v>607</v>
-      </c>
-      <c r="G17" t="n">
-        <v>610</v>
-      </c>
-      <c r="H17" t="n">
-        <v>572</v>
-      </c>
-      <c r="I17" t="n">
-        <v>550</v>
-      </c>
-      <c r="J17" t="n">
-        <v>440</v>
-      </c>
-      <c r="K17" t="n">
-        <v>408</v>
-      </c>
-      <c r="L17" t="n">
-        <v>459</v>
-      </c>
-      <c r="M17" t="n">
-        <v>582</v>
-      </c>
-      <c r="N17" t="n">
-        <v>210</v>
-      </c>
-      <c r="O17" t="n">
-        <v>405</v>
-      </c>
-      <c r="P17" t="n">
-        <v>531</v>
-      </c>
       <c r="Q17" t="n">
-        <v>210</v>
+        <v>394</v>
       </c>
       <c r="R17" t="n">
-        <v>7448</v>
+        <v>6970</v>
       </c>
       <c r="S17" t="n">
-        <v>610</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -1621,58 +1621,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>355</v>
+        <v>146</v>
       </c>
       <c r="C2" t="n">
-        <v>372</v>
+        <v>184</v>
       </c>
       <c r="D2" t="n">
-        <v>448</v>
+        <v>205</v>
       </c>
       <c r="E2" t="n">
-        <v>350</v>
+        <v>63</v>
       </c>
       <c r="F2" t="n">
-        <v>452</v>
+        <v>73</v>
       </c>
       <c r="G2" t="n">
-        <v>410</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>482</v>
+        <v>116</v>
       </c>
       <c r="I2" t="n">
-        <v>406</v>
+        <v>-44</v>
       </c>
       <c r="J2" t="n">
-        <v>394</v>
+        <v>-16</v>
       </c>
       <c r="K2" t="n">
-        <v>33</v>
+        <v>-15</v>
       </c>
       <c r="L2" t="n">
-        <v>355</v>
+        <v>-103</v>
       </c>
       <c r="M2" t="n">
-        <v>435</v>
+        <v>-21</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>-13</v>
       </c>
       <c r="O2" t="n">
-        <v>319</v>
+        <v>-61</v>
       </c>
       <c r="P2" t="n">
-        <v>386</v>
+        <v>-49</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>-103</v>
       </c>
       <c r="R2" t="n">
-        <v>5202</v>
+        <v>492</v>
       </c>
       <c r="S2" t="n">
-        <v>482</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
@@ -1682,58 +1682,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309</v>
+        <v>88</v>
       </c>
       <c r="C3" t="n">
-        <v>318</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
-        <v>368</v>
+        <v>149</v>
       </c>
       <c r="E3" t="n">
-        <v>276</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
-        <v>376</v>
+        <v>39</v>
       </c>
       <c r="G3" t="n">
-        <v>324</v>
+        <v>41</v>
       </c>
       <c r="H3" t="n">
-        <v>362</v>
+        <v>52</v>
       </c>
       <c r="I3" t="n">
-        <v>380</v>
+        <v>142</v>
       </c>
       <c r="J3" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>73</v>
+        <v>-7</v>
       </c>
       <c r="L3" t="n">
-        <v>321</v>
+        <v>-53</v>
       </c>
       <c r="M3" t="n">
-        <v>353</v>
+        <v>161</v>
       </c>
       <c r="N3" t="n">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="O3" t="n">
-        <v>297</v>
+        <v>-35</v>
       </c>
       <c r="P3" t="n">
-        <v>358</v>
+        <v>-19</v>
       </c>
       <c r="Q3" t="n">
-        <v>73</v>
+        <v>-53</v>
       </c>
       <c r="R3" t="n">
-        <v>4544</v>
+        <v>856</v>
       </c>
       <c r="S3" t="n">
-        <v>380</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
@@ -1743,58 +1743,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>355</v>
+        <v>226</v>
       </c>
       <c r="C4" t="n">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="D4" t="n">
-        <v>448</v>
+        <v>323</v>
       </c>
       <c r="E4" t="n">
-        <v>350</v>
+        <v>167</v>
       </c>
       <c r="F4" t="n">
-        <v>452</v>
+        <v>223</v>
       </c>
       <c r="G4" t="n">
-        <v>410</v>
+        <v>173</v>
       </c>
       <c r="H4" t="n">
-        <v>482</v>
+        <v>208</v>
       </c>
       <c r="I4" t="n">
-        <v>406</v>
+        <v>220</v>
       </c>
       <c r="J4" t="n">
-        <v>394</v>
+        <v>56</v>
       </c>
       <c r="K4" t="n">
+        <v>61</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M4" t="n">
+        <v>243</v>
+      </c>
+      <c r="N4" t="n">
+        <v>301</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-15</v>
+      </c>
+      <c r="P4" t="n">
         <v>33</v>
       </c>
-      <c r="L4" t="n">
-        <v>355</v>
-      </c>
-      <c r="M4" t="n">
-        <v>435</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>319</v>
-      </c>
-      <c r="P4" t="n">
-        <v>386</v>
-      </c>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="R4" t="n">
-        <v>5202</v>
+        <v>2474</v>
       </c>
       <c r="S4" t="n">
-        <v>482</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
@@ -1804,58 +1804,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="C5" t="n">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D5" t="n">
-        <v>368</v>
+        <v>275</v>
       </c>
       <c r="E5" t="n">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="F5" t="n">
-        <v>376</v>
+        <v>239</v>
       </c>
       <c r="G5" t="n">
-        <v>324</v>
+        <v>205</v>
       </c>
       <c r="H5" t="n">
-        <v>362</v>
+        <v>244</v>
       </c>
       <c r="I5" t="n">
-        <v>380</v>
+        <v>102</v>
       </c>
       <c r="J5" t="n">
-        <v>330</v>
+        <v>146</v>
       </c>
       <c r="K5" t="n">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="L5" t="n">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="M5" t="n">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="N5" t="n">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="O5" t="n">
-        <v>297</v>
+        <v>137</v>
       </c>
       <c r="P5" t="n">
-        <v>358</v>
+        <v>127</v>
       </c>
       <c r="Q5" t="n">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="R5" t="n">
-        <v>4544</v>
+        <v>2826</v>
       </c>
       <c r="S5" t="n">
-        <v>380</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
@@ -1865,58 +1865,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C6" t="n">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="D6" t="n">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="E6" t="n">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="F6" t="n">
-        <v>352</v>
+        <v>223</v>
       </c>
       <c r="G6" t="n">
-        <v>310</v>
+        <v>173</v>
       </c>
       <c r="H6" t="n">
-        <v>460</v>
+        <v>208</v>
       </c>
       <c r="I6" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="J6" t="n">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="K6" t="n">
-        <v>-125</v>
+        <v>61</v>
       </c>
       <c r="L6" t="n">
-        <v>349</v>
+        <v>-7</v>
       </c>
       <c r="M6" t="n">
-        <v>425</v>
+        <v>243</v>
       </c>
       <c r="N6" t="n">
-        <v>-67</v>
+        <v>301</v>
       </c>
       <c r="O6" t="n">
-        <v>127</v>
+        <v>-15</v>
       </c>
       <c r="P6" t="n">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="Q6" t="n">
-        <v>-125</v>
+        <v>-15</v>
       </c>
       <c r="R6" t="n">
-        <v>3646</v>
+        <v>2474</v>
       </c>
       <c r="S6" t="n">
-        <v>460</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7">
@@ -1926,58 +1926,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>355</v>
+        <v>226</v>
       </c>
       <c r="C7" t="n">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="D7" t="n">
-        <v>448</v>
+        <v>323</v>
       </c>
       <c r="E7" t="n">
-        <v>350</v>
+        <v>167</v>
       </c>
       <c r="F7" t="n">
-        <v>452</v>
+        <v>223</v>
       </c>
       <c r="G7" t="n">
-        <v>410</v>
+        <v>173</v>
       </c>
       <c r="H7" t="n">
-        <v>482</v>
+        <v>208</v>
       </c>
       <c r="I7" t="n">
-        <v>406</v>
+        <v>220</v>
       </c>
       <c r="J7" t="n">
-        <v>394</v>
+        <v>56</v>
       </c>
       <c r="K7" t="n">
+        <v>61</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>243</v>
+      </c>
+      <c r="N7" t="n">
+        <v>301</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-15</v>
+      </c>
+      <c r="P7" t="n">
         <v>33</v>
       </c>
-      <c r="L7" t="n">
-        <v>355</v>
-      </c>
-      <c r="M7" t="n">
-        <v>435</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>319</v>
-      </c>
-      <c r="P7" t="n">
-        <v>386</v>
-      </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="R7" t="n">
-        <v>5202</v>
+        <v>2474</v>
       </c>
       <c r="S7" t="n">
-        <v>482</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8">
@@ -1987,58 +1987,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>309</v>
+        <v>240</v>
       </c>
       <c r="C8" t="n">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D8" t="n">
-        <v>368</v>
+        <v>275</v>
       </c>
       <c r="E8" t="n">
-        <v>276</v>
+        <v>207</v>
       </c>
       <c r="F8" t="n">
-        <v>376</v>
+        <v>239</v>
       </c>
       <c r="G8" t="n">
-        <v>324</v>
+        <v>205</v>
       </c>
       <c r="H8" t="n">
-        <v>362</v>
+        <v>244</v>
       </c>
       <c r="I8" t="n">
-        <v>380</v>
+        <v>102</v>
       </c>
       <c r="J8" t="n">
-        <v>330</v>
+        <v>146</v>
       </c>
       <c r="K8" t="n">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="L8" t="n">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="M8" t="n">
-        <v>353</v>
+        <v>163</v>
       </c>
       <c r="N8" t="n">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="O8" t="n">
-        <v>297</v>
+        <v>137</v>
       </c>
       <c r="P8" t="n">
-        <v>358</v>
+        <v>127</v>
       </c>
       <c r="Q8" t="n">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="R8" t="n">
-        <v>4544</v>
+        <v>2826</v>
       </c>
       <c r="S8" t="n">
-        <v>380</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9">
@@ -2048,58 +2048,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="C9" t="n">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="D9" t="n">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="E9" t="n">
-        <v>312</v>
+        <v>167</v>
       </c>
       <c r="F9" t="n">
-        <v>352</v>
+        <v>223</v>
       </c>
       <c r="G9" t="n">
-        <v>310</v>
+        <v>173</v>
       </c>
       <c r="H9" t="n">
-        <v>460</v>
+        <v>208</v>
       </c>
       <c r="I9" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="J9" t="n">
-        <v>194</v>
+        <v>56</v>
       </c>
       <c r="K9" t="n">
-        <v>-125</v>
+        <v>61</v>
       </c>
       <c r="L9" t="n">
-        <v>349</v>
+        <v>-7</v>
       </c>
       <c r="M9" t="n">
-        <v>425</v>
+        <v>243</v>
       </c>
       <c r="N9" t="n">
-        <v>-67</v>
+        <v>301</v>
       </c>
       <c r="O9" t="n">
-        <v>127</v>
+        <v>-15</v>
       </c>
       <c r="P9" t="n">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="Q9" t="n">
-        <v>-125</v>
+        <v>-15</v>
       </c>
       <c r="R9" t="n">
-        <v>3646</v>
+        <v>2474</v>
       </c>
       <c r="S9" t="n">
-        <v>460</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10">
@@ -2109,58 +2109,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373</v>
+        <v>-146</v>
       </c>
       <c r="C10" t="n">
-        <v>396</v>
+        <v>-152</v>
       </c>
       <c r="D10" t="n">
-        <v>498</v>
+        <v>-151</v>
       </c>
       <c r="E10" t="n">
-        <v>390</v>
+        <v>-149</v>
       </c>
       <c r="F10" t="n">
-        <v>486</v>
+        <v>-183</v>
       </c>
       <c r="G10" t="n">
-        <v>448</v>
+        <v>-129</v>
       </c>
       <c r="H10" t="n">
-        <v>592</v>
+        <v>-168</v>
       </c>
       <c r="I10" t="n">
-        <v>280</v>
+        <v>-16</v>
       </c>
       <c r="J10" t="n">
-        <v>208</v>
+        <v>-222</v>
       </c>
       <c r="K10" t="n">
-        <v>-107</v>
+        <v>-243</v>
       </c>
       <c r="L10" t="n">
-        <v>401</v>
+        <v>-181</v>
       </c>
       <c r="M10" t="n">
-        <v>487</v>
+        <v>-45</v>
       </c>
       <c r="N10" t="n">
-        <v>-43</v>
+        <v>-11</v>
       </c>
       <c r="O10" t="n">
-        <v>173</v>
+        <v>-175</v>
       </c>
       <c r="P10" t="n">
-        <v>252</v>
+        <v>-199</v>
       </c>
       <c r="Q10" t="n">
-        <v>-107</v>
+        <v>-243</v>
       </c>
       <c r="R10" t="n">
-        <v>4834</v>
+        <v>-2170</v>
       </c>
       <c r="S10" t="n">
-        <v>592</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="11">
@@ -2170,58 +2170,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177</v>
+        <v>-118</v>
       </c>
       <c r="C11" t="n">
-        <v>226</v>
+        <v>-110</v>
       </c>
       <c r="D11" t="n">
-        <v>214</v>
+        <v>-129</v>
       </c>
       <c r="E11" t="n">
-        <v>162</v>
+        <v>-127</v>
       </c>
       <c r="F11" t="n">
-        <v>220</v>
+        <v>-131</v>
       </c>
       <c r="G11" t="n">
-        <v>228</v>
+        <v>-131</v>
       </c>
       <c r="H11" t="n">
-        <v>208</v>
+        <v>-136</v>
       </c>
       <c r="I11" t="n">
-        <v>428</v>
+        <v>88</v>
       </c>
       <c r="J11" t="n">
-        <v>408</v>
+        <v>18</v>
       </c>
       <c r="K11" t="n">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="L11" t="n">
-        <v>213</v>
+        <v>-5</v>
       </c>
       <c r="M11" t="n">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="N11" t="n">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="O11" t="n">
-        <v>381</v>
+        <v>45</v>
       </c>
       <c r="P11" t="n">
-        <v>414</v>
+        <v>-9</v>
       </c>
       <c r="Q11" t="n">
-        <v>91</v>
+        <v>-136</v>
       </c>
       <c r="R11" t="n">
-        <v>3746</v>
+        <v>-502</v>
       </c>
       <c r="S11" t="n">
-        <v>428</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
@@ -2231,58 +2231,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>355</v>
+        <v>226</v>
       </c>
       <c r="C12" t="n">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="D12" t="n">
-        <v>448</v>
+        <v>323</v>
       </c>
       <c r="E12" t="n">
-        <v>350</v>
+        <v>167</v>
       </c>
       <c r="F12" t="n">
-        <v>452</v>
+        <v>223</v>
       </c>
       <c r="G12" t="n">
-        <v>410</v>
+        <v>173</v>
       </c>
       <c r="H12" t="n">
-        <v>482</v>
+        <v>208</v>
       </c>
       <c r="I12" t="n">
-        <v>406</v>
+        <v>220</v>
       </c>
       <c r="J12" t="n">
-        <v>394</v>
+        <v>56</v>
       </c>
       <c r="K12" t="n">
+        <v>61</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>243</v>
+      </c>
+      <c r="N12" t="n">
+        <v>301</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-15</v>
+      </c>
+      <c r="P12" t="n">
         <v>33</v>
       </c>
-      <c r="L12" t="n">
-        <v>355</v>
-      </c>
-      <c r="M12" t="n">
-        <v>435</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5</v>
-      </c>
-      <c r="O12" t="n">
-        <v>319</v>
-      </c>
-      <c r="P12" t="n">
-        <v>386</v>
-      </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="R12" t="n">
-        <v>5202</v>
+        <v>2474</v>
       </c>
       <c r="S12" t="n">
-        <v>482</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13">
@@ -2292,58 +2292,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="C13" t="n">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="D13" t="n">
-        <v>368</v>
+        <v>211</v>
       </c>
       <c r="E13" t="n">
-        <v>302</v>
+        <v>105</v>
       </c>
       <c r="F13" t="n">
-        <v>342</v>
+        <v>137</v>
       </c>
       <c r="G13" t="n">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c r="H13" t="n">
-        <v>412</v>
+        <v>142</v>
       </c>
       <c r="I13" t="n">
-        <v>234</v>
+        <v>144</v>
       </c>
       <c r="J13" t="n">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="K13" t="n">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="L13" t="n">
-        <v>337</v>
+        <v>33</v>
       </c>
       <c r="M13" t="n">
-        <v>413</v>
+        <v>173</v>
       </c>
       <c r="N13" t="n">
-        <v>-141</v>
+        <v>255</v>
       </c>
       <c r="O13" t="n">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="P13" t="n">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="Q13" t="n">
-        <v>-141</v>
+        <v>33</v>
       </c>
       <c r="R13" t="n">
-        <v>3658</v>
+        <v>1970</v>
       </c>
       <c r="S13" t="n">
-        <v>413</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14">
@@ -2353,58 +2353,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>321</v>
+        <v>226</v>
       </c>
       <c r="C14" t="n">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="D14" t="n">
-        <v>372</v>
+        <v>323</v>
       </c>
       <c r="E14" t="n">
-        <v>284</v>
+        <v>167</v>
       </c>
       <c r="F14" t="n">
-        <v>384</v>
+        <v>223</v>
       </c>
       <c r="G14" t="n">
-        <v>378</v>
+        <v>173</v>
       </c>
       <c r="H14" t="n">
-        <v>370</v>
+        <v>208</v>
       </c>
       <c r="I14" t="n">
-        <v>564</v>
+        <v>220</v>
       </c>
       <c r="J14" t="n">
-        <v>510</v>
+        <v>56</v>
       </c>
       <c r="K14" t="n">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="L14" t="n">
-        <v>325</v>
+        <v>-7</v>
       </c>
       <c r="M14" t="n">
-        <v>361</v>
+        <v>243</v>
       </c>
       <c r="N14" t="n">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="O14" t="n">
-        <v>469</v>
+        <v>-15</v>
       </c>
       <c r="P14" t="n">
-        <v>554</v>
+        <v>33</v>
       </c>
       <c r="Q14" t="n">
-        <v>199</v>
+        <v>-15</v>
       </c>
       <c r="R14" t="n">
-        <v>5722</v>
+        <v>2474</v>
       </c>
       <c r="S14" t="n">
-        <v>564</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15">
@@ -2414,58 +2414,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="C15" t="n">
+        <v>262</v>
+      </c>
+      <c r="D15" t="n">
+        <v>323</v>
+      </c>
+      <c r="E15" t="n">
+        <v>167</v>
+      </c>
+      <c r="F15" t="n">
+        <v>223</v>
+      </c>
+      <c r="G15" t="n">
+        <v>173</v>
+      </c>
+      <c r="H15" t="n">
         <v>208</v>
       </c>
-      <c r="D15" t="n">
-        <v>240</v>
-      </c>
-      <c r="E15" t="n">
+      <c r="I15" t="n">
         <v>220</v>
       </c>
-      <c r="F15" t="n">
-        <v>212</v>
-      </c>
-      <c r="G15" t="n">
-        <v>182</v>
-      </c>
-      <c r="H15" t="n">
-        <v>286</v>
-      </c>
-      <c r="I15" t="n">
-        <v>278</v>
-      </c>
       <c r="J15" t="n">
-        <v>286</v>
+        <v>56</v>
       </c>
       <c r="K15" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="L15" t="n">
-        <v>253</v>
+        <v>-7</v>
       </c>
       <c r="M15" t="n">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="N15" t="n">
-        <v>-21</v>
+        <v>301</v>
       </c>
       <c r="O15" t="n">
-        <v>237</v>
+        <v>-15</v>
       </c>
       <c r="P15" t="n">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="Q15" t="n">
-        <v>-21</v>
+        <v>-15</v>
       </c>
       <c r="R15" t="n">
-        <v>3038</v>
+        <v>2474</v>
       </c>
       <c r="S15" t="n">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16">
@@ -2475,58 +2475,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>355</v>
+        <v>226</v>
       </c>
       <c r="C16" t="n">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="D16" t="n">
-        <v>448</v>
+        <v>323</v>
       </c>
       <c r="E16" t="n">
-        <v>350</v>
+        <v>167</v>
       </c>
       <c r="F16" t="n">
-        <v>452</v>
+        <v>223</v>
       </c>
       <c r="G16" t="n">
-        <v>410</v>
+        <v>173</v>
       </c>
       <c r="H16" t="n">
-        <v>482</v>
+        <v>208</v>
       </c>
       <c r="I16" t="n">
-        <v>406</v>
+        <v>220</v>
       </c>
       <c r="J16" t="n">
-        <v>394</v>
+        <v>56</v>
       </c>
       <c r="K16" t="n">
+        <v>61</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>243</v>
+      </c>
+      <c r="N16" t="n">
+        <v>301</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-15</v>
+      </c>
+      <c r="P16" t="n">
         <v>33</v>
       </c>
-      <c r="L16" t="n">
-        <v>355</v>
-      </c>
-      <c r="M16" t="n">
-        <v>435</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5</v>
-      </c>
-      <c r="O16" t="n">
-        <v>319</v>
-      </c>
-      <c r="P16" t="n">
-        <v>386</v>
-      </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="R16" t="n">
-        <v>5202</v>
+        <v>2474</v>
       </c>
       <c r="S16" t="n">
-        <v>482</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17">
@@ -2536,58 +2536,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C17" t="n">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="D17" t="n">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="E17" t="n">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="F17" t="n">
-        <v>342</v>
+        <v>223</v>
       </c>
       <c r="G17" t="n">
-        <v>274</v>
+        <v>173</v>
       </c>
       <c r="H17" t="n">
-        <v>412</v>
+        <v>208</v>
       </c>
       <c r="I17" t="n">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="J17" t="n">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="K17" t="n">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="L17" t="n">
-        <v>337</v>
+        <v>-7</v>
       </c>
       <c r="M17" t="n">
-        <v>413</v>
+        <v>243</v>
       </c>
       <c r="N17" t="n">
-        <v>-141</v>
+        <v>301</v>
       </c>
       <c r="O17" t="n">
-        <v>165</v>
+        <v>-15</v>
       </c>
       <c r="P17" t="n">
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="Q17" t="n">
-        <v>-141</v>
+        <v>-15</v>
       </c>
       <c r="R17" t="n">
-        <v>3658</v>
+        <v>2474</v>
       </c>
       <c r="S17" t="n">
-        <v>413</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/satisfaction/run_no=8.xlsx
+++ b/results/util-algo=mallows_costs-dist=betavariate_voters=15_projects=15/satisfaction/run_no=8.xlsx
@@ -534,58 +534,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375</v>
+        <v>514</v>
       </c>
       <c r="C2" t="n">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D2" t="n">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>482</v>
       </c>
       <c r="F2" t="n">
-        <v>417</v>
+        <v>521</v>
       </c>
       <c r="G2" t="n">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="H2" t="n">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="I2" t="n">
-        <v>324</v>
+        <v>469</v>
       </c>
       <c r="J2" t="n">
-        <v>382</v>
+        <v>651</v>
       </c>
       <c r="K2" t="n">
-        <v>398</v>
+        <v>529</v>
       </c>
       <c r="L2" t="n">
-        <v>423</v>
+        <v>554</v>
       </c>
       <c r="M2" t="n">
-        <v>400</v>
+        <v>541</v>
       </c>
       <c r="N2" t="n">
-        <v>344</v>
+        <v>544</v>
       </c>
       <c r="O2" t="n">
-        <v>371</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>376</v>
+        <v>664</v>
       </c>
       <c r="Q2" t="n">
-        <v>324</v>
+        <v>410</v>
       </c>
       <c r="R2" t="n">
-        <v>5979</v>
+        <v>7963</v>
       </c>
       <c r="S2" t="n">
-        <v>481</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3">
@@ -595,58 +595,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>346</v>
+        <v>645</v>
       </c>
       <c r="C3" t="n">
-        <v>434</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>404</v>
+        <v>610</v>
       </c>
       <c r="E3" t="n">
-        <v>385</v>
+        <v>600</v>
       </c>
       <c r="F3" t="n">
-        <v>400</v>
+        <v>663</v>
       </c>
       <c r="G3" t="n">
-        <v>446</v>
+        <v>574</v>
       </c>
       <c r="H3" t="n">
-        <v>385</v>
+        <v>499</v>
       </c>
       <c r="I3" t="n">
-        <v>417</v>
+        <v>481</v>
       </c>
       <c r="J3" t="n">
-        <v>390</v>
+        <v>738</v>
       </c>
       <c r="K3" t="n">
-        <v>402</v>
+        <v>566</v>
       </c>
       <c r="L3" t="n">
-        <v>448</v>
+        <v>626</v>
       </c>
       <c r="M3" t="n">
-        <v>491</v>
+        <v>564</v>
       </c>
       <c r="N3" t="n">
-        <v>438</v>
+        <v>601</v>
       </c>
       <c r="O3" t="n">
-        <v>384</v>
+        <v>721</v>
       </c>
       <c r="P3" t="n">
-        <v>391</v>
+        <v>738</v>
       </c>
       <c r="Q3" t="n">
-        <v>346</v>
+        <v>481</v>
       </c>
       <c r="R3" t="n">
-        <v>6161</v>
+        <v>9227</v>
       </c>
       <c r="S3" t="n">
-        <v>491</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4">
@@ -656,58 +656,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>415</v>
+        <v>559</v>
       </c>
       <c r="C4" t="n">
+        <v>518</v>
+      </c>
+      <c r="D4" t="n">
+        <v>523</v>
+      </c>
+      <c r="E4" t="n">
+        <v>511</v>
+      </c>
+      <c r="F4" t="n">
+        <v>570</v>
+      </c>
+      <c r="G4" t="n">
+        <v>493</v>
+      </c>
+      <c r="H4" t="n">
+        <v>431</v>
+      </c>
+      <c r="I4" t="n">
+        <v>435</v>
+      </c>
+      <c r="J4" t="n">
+        <v>640</v>
+      </c>
+      <c r="K4" t="n">
+        <v>486</v>
+      </c>
+      <c r="L4" t="n">
+        <v>534</v>
+      </c>
+      <c r="M4" t="n">
+        <v>487</v>
+      </c>
+      <c r="N4" t="n">
         <v>520</v>
       </c>
-      <c r="D4" t="n">
-        <v>491</v>
-      </c>
-      <c r="E4" t="n">
-        <v>452</v>
-      </c>
-      <c r="F4" t="n">
-        <v>492</v>
-      </c>
-      <c r="G4" t="n">
-        <v>512</v>
-      </c>
-      <c r="H4" t="n">
-        <v>463</v>
-      </c>
-      <c r="I4" t="n">
-        <v>456</v>
-      </c>
-      <c r="J4" t="n">
-        <v>418</v>
-      </c>
-      <c r="K4" t="n">
-        <v>436</v>
-      </c>
-      <c r="L4" t="n">
-        <v>471</v>
-      </c>
-      <c r="M4" t="n">
-        <v>532</v>
-      </c>
-      <c r="N4" t="n">
-        <v>501</v>
-      </c>
       <c r="O4" t="n">
-        <v>394</v>
+        <v>625</v>
       </c>
       <c r="P4" t="n">
-        <v>417</v>
+        <v>649</v>
       </c>
       <c r="Q4" t="n">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="R4" t="n">
-        <v>6970</v>
+        <v>7981</v>
       </c>
       <c r="S4" t="n">
-        <v>532</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5">
@@ -717,58 +717,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422</v>
+        <v>625</v>
       </c>
       <c r="C5" t="n">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="D5" t="n">
-        <v>467</v>
+        <v>571</v>
       </c>
       <c r="E5" t="n">
-        <v>472</v>
+        <v>552</v>
       </c>
       <c r="F5" t="n">
-        <v>500</v>
+        <v>637</v>
       </c>
       <c r="G5" t="n">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="H5" t="n">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="I5" t="n">
-        <v>397</v>
+        <v>480</v>
       </c>
       <c r="J5" t="n">
-        <v>463</v>
+        <v>721</v>
       </c>
       <c r="K5" t="n">
-        <v>481</v>
+        <v>566</v>
       </c>
       <c r="L5" t="n">
-        <v>537</v>
+        <v>624</v>
       </c>
       <c r="M5" t="n">
-        <v>492</v>
+        <v>564</v>
       </c>
       <c r="N5" t="n">
-        <v>432</v>
+        <v>597</v>
       </c>
       <c r="O5" t="n">
-        <v>470</v>
+        <v>708</v>
       </c>
       <c r="P5" t="n">
-        <v>464</v>
+        <v>730</v>
       </c>
       <c r="Q5" t="n">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="R5" t="n">
-        <v>7146</v>
+        <v>8967</v>
       </c>
       <c r="S5" t="n">
-        <v>540</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6">
@@ -778,58 +778,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>415</v>
+        <v>591</v>
       </c>
       <c r="C6" t="n">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="D6" t="n">
-        <v>491</v>
+        <v>574</v>
       </c>
       <c r="E6" t="n">
-        <v>452</v>
+        <v>538</v>
       </c>
       <c r="F6" t="n">
-        <v>492</v>
+        <v>618</v>
       </c>
       <c r="G6" t="n">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="H6" t="n">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I6" t="n">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="J6" t="n">
-        <v>418</v>
+        <v>580</v>
       </c>
       <c r="K6" t="n">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="L6" t="n">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="M6" t="n">
-        <v>532</v>
+        <v>443</v>
       </c>
       <c r="N6" t="n">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="O6" t="n">
-        <v>394</v>
+        <v>568</v>
       </c>
       <c r="P6" t="n">
-        <v>417</v>
+        <v>605</v>
       </c>
       <c r="Q6" t="n">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="R6" t="n">
-        <v>6970</v>
+        <v>7891</v>
       </c>
       <c r="S6" t="n">
-        <v>532</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7">
@@ -839,58 +839,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>415</v>
+        <v>559</v>
       </c>
       <c r="C7" t="n">
+        <v>518</v>
+      </c>
+      <c r="D7" t="n">
+        <v>523</v>
+      </c>
+      <c r="E7" t="n">
+        <v>511</v>
+      </c>
+      <c r="F7" t="n">
+        <v>570</v>
+      </c>
+      <c r="G7" t="n">
+        <v>493</v>
+      </c>
+      <c r="H7" t="n">
+        <v>431</v>
+      </c>
+      <c r="I7" t="n">
+        <v>435</v>
+      </c>
+      <c r="J7" t="n">
+        <v>640</v>
+      </c>
+      <c r="K7" t="n">
+        <v>486</v>
+      </c>
+      <c r="L7" t="n">
+        <v>534</v>
+      </c>
+      <c r="M7" t="n">
+        <v>487</v>
+      </c>
+      <c r="N7" t="n">
         <v>520</v>
       </c>
-      <c r="D7" t="n">
-        <v>491</v>
-      </c>
-      <c r="E7" t="n">
-        <v>452</v>
-      </c>
-      <c r="F7" t="n">
-        <v>492</v>
-      </c>
-      <c r="G7" t="n">
-        <v>512</v>
-      </c>
-      <c r="H7" t="n">
-        <v>463</v>
-      </c>
-      <c r="I7" t="n">
-        <v>456</v>
-      </c>
-      <c r="J7" t="n">
-        <v>418</v>
-      </c>
-      <c r="K7" t="n">
-        <v>436</v>
-      </c>
-      <c r="L7" t="n">
-        <v>471</v>
-      </c>
-      <c r="M7" t="n">
-        <v>532</v>
-      </c>
-      <c r="N7" t="n">
-        <v>501</v>
-      </c>
       <c r="O7" t="n">
-        <v>394</v>
+        <v>625</v>
       </c>
       <c r="P7" t="n">
-        <v>417</v>
+        <v>649</v>
       </c>
       <c r="Q7" t="n">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="R7" t="n">
-        <v>6970</v>
+        <v>7981</v>
       </c>
       <c r="S7" t="n">
-        <v>532</v>
+        <v>649</v>
       </c>
     </row>
     <row r="8">
@@ -900,58 +900,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422</v>
+        <v>625</v>
       </c>
       <c r="C8" t="n">
-        <v>540</v>
+        <v>568</v>
       </c>
       <c r="D8" t="n">
-        <v>467</v>
+        <v>571</v>
       </c>
       <c r="E8" t="n">
-        <v>472</v>
+        <v>552</v>
       </c>
       <c r="F8" t="n">
-        <v>500</v>
+        <v>637</v>
       </c>
       <c r="G8" t="n">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="H8" t="n">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="I8" t="n">
-        <v>397</v>
+        <v>480</v>
       </c>
       <c r="J8" t="n">
-        <v>463</v>
+        <v>721</v>
       </c>
       <c r="K8" t="n">
-        <v>481</v>
+        <v>566</v>
       </c>
       <c r="L8" t="n">
-        <v>537</v>
+        <v>624</v>
       </c>
       <c r="M8" t="n">
-        <v>492</v>
+        <v>564</v>
       </c>
       <c r="N8" t="n">
-        <v>432</v>
+        <v>597</v>
       </c>
       <c r="O8" t="n">
-        <v>470</v>
+        <v>708</v>
       </c>
       <c r="P8" t="n">
-        <v>464</v>
+        <v>730</v>
       </c>
       <c r="Q8" t="n">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="R8" t="n">
-        <v>7146</v>
+        <v>8967</v>
       </c>
       <c r="S8" t="n">
-        <v>540</v>
+        <v>730</v>
       </c>
     </row>
     <row r="9">
@@ -961,58 +961,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>415</v>
+        <v>591</v>
       </c>
       <c r="C9" t="n">
-        <v>520</v>
+        <v>568</v>
       </c>
       <c r="D9" t="n">
-        <v>491</v>
+        <v>574</v>
       </c>
       <c r="E9" t="n">
-        <v>452</v>
+        <v>538</v>
       </c>
       <c r="F9" t="n">
-        <v>492</v>
+        <v>618</v>
       </c>
       <c r="G9" t="n">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="H9" t="n">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I9" t="n">
-        <v>456</v>
+        <v>389</v>
       </c>
       <c r="J9" t="n">
-        <v>418</v>
+        <v>580</v>
       </c>
       <c r="K9" t="n">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="L9" t="n">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="M9" t="n">
-        <v>532</v>
+        <v>443</v>
       </c>
       <c r="N9" t="n">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="O9" t="n">
-        <v>394</v>
+        <v>568</v>
       </c>
       <c r="P9" t="n">
-        <v>417</v>
+        <v>605</v>
       </c>
       <c r="Q9" t="n">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="R9" t="n">
-        <v>6970</v>
+        <v>7891</v>
       </c>
       <c r="S9" t="n">
-        <v>532</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10">
@@ -1022,58 +1022,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>229</v>
+        <v>528</v>
       </c>
       <c r="C10" t="n">
-        <v>313</v>
+        <v>502</v>
       </c>
       <c r="D10" t="n">
-        <v>254</v>
+        <v>504</v>
       </c>
       <c r="E10" t="n">
-        <v>294</v>
+        <v>503</v>
       </c>
       <c r="F10" t="n">
-        <v>289</v>
+        <v>553</v>
       </c>
       <c r="G10" t="n">
-        <v>361</v>
+        <v>469</v>
       </c>
       <c r="H10" t="n">
-        <v>275</v>
+        <v>411</v>
       </c>
       <c r="I10" t="n">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="J10" t="n">
-        <v>279</v>
+        <v>603</v>
       </c>
       <c r="K10" t="n">
-        <v>284</v>
+        <v>465</v>
       </c>
       <c r="L10" t="n">
-        <v>384</v>
+        <v>521</v>
       </c>
       <c r="M10" t="n">
-        <v>388</v>
+        <v>464</v>
       </c>
       <c r="N10" t="n">
-        <v>345</v>
+        <v>506</v>
       </c>
       <c r="O10" t="n">
-        <v>314</v>
+        <v>597</v>
       </c>
       <c r="P10" t="n">
-        <v>301</v>
+        <v>595</v>
       </c>
       <c r="Q10" t="n">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="R10" t="n">
-        <v>4648</v>
+        <v>7600</v>
       </c>
       <c r="S10" t="n">
-        <v>388</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11">
@@ -1083,58 +1083,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243</v>
+        <v>484</v>
       </c>
       <c r="C11" t="n">
-        <v>334</v>
+        <v>424</v>
       </c>
       <c r="D11" t="n">
-        <v>265</v>
+        <v>428</v>
       </c>
       <c r="E11" t="n">
-        <v>305</v>
+        <v>452</v>
       </c>
       <c r="F11" t="n">
-        <v>315</v>
+        <v>466</v>
       </c>
       <c r="G11" t="n">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="H11" t="n">
-        <v>291</v>
+        <v>369</v>
       </c>
       <c r="I11" t="n">
-        <v>390</v>
+        <v>452</v>
       </c>
       <c r="J11" t="n">
-        <v>399</v>
+        <v>631</v>
       </c>
       <c r="K11" t="n">
-        <v>410</v>
+        <v>521</v>
       </c>
       <c r="L11" t="n">
-        <v>472</v>
+        <v>547</v>
       </c>
       <c r="M11" t="n">
-        <v>454</v>
+        <v>535</v>
       </c>
       <c r="N11" t="n">
-        <v>424</v>
+        <v>540</v>
       </c>
       <c r="O11" t="n">
-        <v>424</v>
+        <v>630</v>
       </c>
       <c r="P11" t="n">
-        <v>396</v>
+        <v>636</v>
       </c>
       <c r="Q11" t="n">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="R11" t="n">
-        <v>5482</v>
+        <v>7520</v>
       </c>
       <c r="S11" t="n">
-        <v>472</v>
+        <v>636</v>
       </c>
     </row>
     <row r="12">
@@ -1144,58 +1144,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>415</v>
+        <v>559</v>
       </c>
       <c r="C12" t="n">
+        <v>518</v>
+      </c>
+      <c r="D12" t="n">
+        <v>523</v>
+      </c>
+      <c r="E12" t="n">
+        <v>511</v>
+      </c>
+      <c r="F12" t="n">
+        <v>570</v>
+      </c>
+      <c r="G12" t="n">
+        <v>493</v>
+      </c>
+      <c r="H12" t="n">
+        <v>431</v>
+      </c>
+      <c r="I12" t="n">
+        <v>435</v>
+      </c>
+      <c r="J12" t="n">
+        <v>640</v>
+      </c>
+      <c r="K12" t="n">
+        <v>486</v>
+      </c>
+      <c r="L12" t="n">
+        <v>534</v>
+      </c>
+      <c r="M12" t="n">
+        <v>487</v>
+      </c>
+      <c r="N12" t="n">
         <v>520</v>
       </c>
-      <c r="D12" t="n">
-        <v>491</v>
-      </c>
-      <c r="E12" t="n">
-        <v>452</v>
-      </c>
-      <c r="F12" t="n">
-        <v>492</v>
-      </c>
-      <c r="G12" t="n">
-        <v>512</v>
-      </c>
-      <c r="H12" t="n">
-        <v>463</v>
-      </c>
-      <c r="I12" t="n">
-        <v>456</v>
-      </c>
-      <c r="J12" t="n">
-        <v>418</v>
-      </c>
-      <c r="K12" t="n">
-        <v>436</v>
-      </c>
-      <c r="L12" t="n">
-        <v>471</v>
-      </c>
-      <c r="M12" t="n">
-        <v>532</v>
-      </c>
-      <c r="N12" t="n">
-        <v>501</v>
-      </c>
       <c r="O12" t="n">
-        <v>394</v>
+        <v>625</v>
       </c>
       <c r="P12" t="n">
-        <v>417</v>
+        <v>649</v>
       </c>
       <c r="Q12" t="n">
-        <v>394</v>
+        <v>431</v>
       </c>
       <c r="R12" t="n">
-        <v>6970</v>
+        <v>7981</v>
       </c>
       <c r="S12" t="n">
-        <v>532</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13">
@@ -1205,58 +1205,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>378</v>
+        <v>558</v>
       </c>
       <c r="C13" t="n">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="D13" t="n">
-        <v>435</v>
+        <v>518</v>
       </c>
       <c r="E13" t="n">
-        <v>421</v>
+        <v>538</v>
       </c>
       <c r="F13" t="n">
-        <v>449</v>
+        <v>557</v>
       </c>
       <c r="G13" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H13" t="n">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="I13" t="n">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="J13" t="n">
-        <v>430</v>
+        <v>688</v>
       </c>
       <c r="K13" t="n">
-        <v>447</v>
+        <v>552</v>
       </c>
       <c r="L13" t="n">
-        <v>491</v>
+        <v>590</v>
       </c>
       <c r="M13" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="N13" t="n">
-        <v>478</v>
+        <v>575</v>
       </c>
       <c r="O13" t="n">
-        <v>437</v>
+        <v>674</v>
       </c>
       <c r="P13" t="n">
-        <v>432</v>
+        <v>687</v>
       </c>
       <c r="Q13" t="n">
-        <v>378</v>
+        <v>439</v>
       </c>
       <c r="R13" t="n">
-        <v>6718</v>
+        <v>8405</v>
       </c>
       <c r="S13" t="n">
-        <v>497</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14">
@@ -1266,58 +1266,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415</v>
+        <v>558</v>
       </c>
       <c r="C14" t="n">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D14" t="n">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="E14" t="n">
-        <v>452</v>
+        <v>538</v>
       </c>
       <c r="F14" t="n">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="G14" t="n">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="H14" t="n">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="I14" t="n">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="J14" t="n">
-        <v>418</v>
+        <v>688</v>
       </c>
       <c r="K14" t="n">
-        <v>436</v>
+        <v>552</v>
       </c>
       <c r="L14" t="n">
-        <v>471</v>
+        <v>590</v>
       </c>
       <c r="M14" t="n">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="N14" t="n">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="O14" t="n">
-        <v>394</v>
+        <v>674</v>
       </c>
       <c r="P14" t="n">
-        <v>417</v>
+        <v>687</v>
       </c>
       <c r="Q14" t="n">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="R14" t="n">
-        <v>6970</v>
+        <v>8405</v>
       </c>
       <c r="S14" t="n">
-        <v>532</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15">
@@ -1327,58 +1327,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>415</v>
+        <v>558</v>
       </c>
       <c r="C15" t="n">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D15" t="n">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="E15" t="n">
-        <v>452</v>
+        <v>538</v>
       </c>
       <c r="F15" t="n">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="G15" t="n">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="H15" t="n">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="I15" t="n">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="J15" t="n">
-        <v>418</v>
+        <v>688</v>
       </c>
       <c r="K15" t="n">
-        <v>436</v>
+        <v>552</v>
       </c>
       <c r="L15" t="n">
-        <v>471</v>
+        <v>590</v>
       </c>
       <c r="M15" t="n">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="N15" t="n">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="O15" t="n">
-        <v>394</v>
+        <v>674</v>
       </c>
       <c r="P15" t="n">
-        <v>417</v>
+        <v>687</v>
       </c>
       <c r="Q15" t="n">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="R15" t="n">
-        <v>6970</v>
+        <v>8405</v>
       </c>
       <c r="S15" t="n">
-        <v>532</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16">
@@ -1388,58 +1388,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415</v>
+        <v>514</v>
       </c>
       <c r="C16" t="n">
-        <v>520</v>
+        <v>482</v>
       </c>
       <c r="D16" t="n">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="E16" t="n">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="F16" t="n">
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="G16" t="n">
-        <v>512</v>
+        <v>454</v>
       </c>
       <c r="H16" t="n">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="I16" t="n">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="J16" t="n">
-        <v>418</v>
+        <v>651</v>
       </c>
       <c r="K16" t="n">
-        <v>436</v>
+        <v>529</v>
       </c>
       <c r="L16" t="n">
-        <v>471</v>
+        <v>554</v>
       </c>
       <c r="M16" t="n">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="N16" t="n">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="O16" t="n">
-        <v>394</v>
+        <v>651</v>
       </c>
       <c r="P16" t="n">
-        <v>417</v>
+        <v>664</v>
       </c>
       <c r="Q16" t="n">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="R16" t="n">
-        <v>6970</v>
+        <v>7963</v>
       </c>
       <c r="S16" t="n">
-        <v>532</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17">
@@ -1449,58 +1449,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415</v>
+        <v>558</v>
       </c>
       <c r="C17" t="n">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D17" t="n">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="E17" t="n">
-        <v>452</v>
+        <v>538</v>
       </c>
       <c r="F17" t="n">
-        <v>492</v>
+        <v>557</v>
       </c>
       <c r="G17" t="n">
-        <v>512</v>
+        <v>479</v>
       </c>
       <c r="H17" t="n">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="I17" t="n">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="J17" t="n">
-        <v>418</v>
+        <v>688</v>
       </c>
       <c r="K17" t="n">
-        <v>436</v>
+        <v>552</v>
       </c>
       <c r="L17" t="n">
-        <v>471</v>
+        <v>590</v>
       </c>
       <c r="M17" t="n">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="N17" t="n">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="O17" t="n">
-        <v>394</v>
+        <v>674</v>
       </c>
       <c r="P17" t="n">
-        <v>417</v>
+        <v>687</v>
       </c>
       <c r="Q17" t="n">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="R17" t="n">
-        <v>6970</v>
+        <v>8405</v>
       </c>
       <c r="S17" t="n">
-        <v>532</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -1621,58 +1621,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="C2" t="n">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="D2" t="n">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="E2" t="n">
-        <v>63</v>
+        <v>234</v>
       </c>
       <c r="F2" t="n">
-        <v>73</v>
+        <v>213</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="H2" t="n">
-        <v>116</v>
+        <v>224</v>
       </c>
       <c r="I2" t="n">
-        <v>-44</v>
+        <v>328</v>
       </c>
       <c r="J2" t="n">
-        <v>-16</v>
+        <v>399</v>
       </c>
       <c r="K2" t="n">
-        <v>-15</v>
+        <v>349</v>
       </c>
       <c r="L2" t="n">
-        <v>-103</v>
+        <v>312</v>
       </c>
       <c r="M2" t="n">
-        <v>-21</v>
+        <v>366</v>
       </c>
       <c r="N2" t="n">
-        <v>-13</v>
+        <v>325</v>
       </c>
       <c r="O2" t="n">
-        <v>-61</v>
+        <v>417</v>
       </c>
       <c r="P2" t="n">
-        <v>-49</v>
+        <v>409</v>
       </c>
       <c r="Q2" t="n">
-        <v>-103</v>
+        <v>183</v>
       </c>
       <c r="R2" t="n">
-        <v>492</v>
+        <v>4460</v>
       </c>
       <c r="S2" t="n">
-        <v>205</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3">
@@ -1682,58 +1682,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88</v>
+        <v>493</v>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>461</v>
       </c>
       <c r="D3" t="n">
-        <v>149</v>
+        <v>473</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>470</v>
       </c>
       <c r="F3" t="n">
-        <v>39</v>
+        <v>497</v>
       </c>
       <c r="G3" t="n">
-        <v>41</v>
+        <v>423</v>
       </c>
       <c r="H3" t="n">
-        <v>52</v>
+        <v>402</v>
       </c>
       <c r="I3" t="n">
-        <v>142</v>
+        <v>352</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>573</v>
       </c>
       <c r="K3" t="n">
-        <v>-7</v>
+        <v>423</v>
       </c>
       <c r="L3" t="n">
-        <v>-53</v>
+        <v>456</v>
       </c>
       <c r="M3" t="n">
-        <v>161</v>
+        <v>412</v>
       </c>
       <c r="N3" t="n">
-        <v>175</v>
+        <v>439</v>
       </c>
       <c r="O3" t="n">
-        <v>-35</v>
+        <v>557</v>
       </c>
       <c r="P3" t="n">
-        <v>-19</v>
+        <v>557</v>
       </c>
       <c r="Q3" t="n">
-        <v>-53</v>
+        <v>352</v>
       </c>
       <c r="R3" t="n">
-        <v>856</v>
+        <v>6988</v>
       </c>
       <c r="S3" t="n">
-        <v>175</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4">
@@ -1743,58 +1743,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226</v>
+        <v>321</v>
       </c>
       <c r="C4" t="n">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="D4" t="n">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E4" t="n">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="F4" t="n">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="G4" t="n">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="H4" t="n">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="I4" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="J4" t="n">
-        <v>56</v>
+        <v>377</v>
       </c>
       <c r="K4" t="n">
-        <v>61</v>
+        <v>263</v>
       </c>
       <c r="L4" t="n">
-        <v>-7</v>
+        <v>272</v>
       </c>
       <c r="M4" t="n">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="N4" t="n">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="O4" t="n">
-        <v>-15</v>
+        <v>365</v>
       </c>
       <c r="P4" t="n">
-        <v>33</v>
+        <v>379</v>
       </c>
       <c r="Q4" t="n">
-        <v>-15</v>
+        <v>258</v>
       </c>
       <c r="R4" t="n">
-        <v>2474</v>
+        <v>4496</v>
       </c>
       <c r="S4" t="n">
-        <v>323</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5">
@@ -1804,58 +1804,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>240</v>
+        <v>453</v>
       </c>
       <c r="C5" t="n">
-        <v>302</v>
+        <v>395</v>
       </c>
       <c r="D5" t="n">
-        <v>275</v>
+        <v>395</v>
       </c>
       <c r="E5" t="n">
-        <v>207</v>
+        <v>374</v>
       </c>
       <c r="F5" t="n">
-        <v>239</v>
+        <v>445</v>
       </c>
       <c r="G5" t="n">
-        <v>205</v>
+        <v>401</v>
       </c>
       <c r="H5" t="n">
-        <v>244</v>
+        <v>326</v>
       </c>
       <c r="I5" t="n">
-        <v>102</v>
+        <v>350</v>
       </c>
       <c r="J5" t="n">
-        <v>146</v>
+        <v>539</v>
       </c>
       <c r="K5" t="n">
-        <v>151</v>
+        <v>423</v>
       </c>
       <c r="L5" t="n">
-        <v>125</v>
+        <v>452</v>
       </c>
       <c r="M5" t="n">
-        <v>163</v>
+        <v>412</v>
       </c>
       <c r="N5" t="n">
-        <v>163</v>
+        <v>431</v>
       </c>
       <c r="O5" t="n">
-        <v>137</v>
+        <v>531</v>
       </c>
       <c r="P5" t="n">
-        <v>127</v>
+        <v>541</v>
       </c>
       <c r="Q5" t="n">
-        <v>102</v>
+        <v>326</v>
       </c>
       <c r="R5" t="n">
-        <v>2826</v>
+        <v>6468</v>
       </c>
       <c r="S5" t="n">
-        <v>302</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6">
@@ -1865,58 +1865,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>226</v>
+        <v>385</v>
       </c>
       <c r="C6" t="n">
-        <v>262</v>
+        <v>395</v>
       </c>
       <c r="D6" t="n">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="E6" t="n">
-        <v>167</v>
+        <v>346</v>
       </c>
       <c r="F6" t="n">
-        <v>223</v>
+        <v>407</v>
       </c>
       <c r="G6" t="n">
-        <v>173</v>
+        <v>361</v>
       </c>
       <c r="H6" t="n">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="I6" t="n">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="J6" t="n">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="K6" t="n">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="L6" t="n">
-        <v>-7</v>
+        <v>212</v>
       </c>
       <c r="M6" t="n">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="N6" t="n">
-        <v>301</v>
+        <v>175</v>
       </c>
       <c r="O6" t="n">
-        <v>-15</v>
+        <v>251</v>
       </c>
       <c r="P6" t="n">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="Q6" t="n">
-        <v>-15</v>
+        <v>168</v>
       </c>
       <c r="R6" t="n">
-        <v>2474</v>
+        <v>4316</v>
       </c>
       <c r="S6" t="n">
-        <v>323</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7">
@@ -1926,58 +1926,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>226</v>
+        <v>321</v>
       </c>
       <c r="C7" t="n">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="D7" t="n">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E7" t="n">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="F7" t="n">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="G7" t="n">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="H7" t="n">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="I7" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="J7" t="n">
-        <v>56</v>
+        <v>377</v>
       </c>
       <c r="K7" t="n">
-        <v>61</v>
+        <v>263</v>
       </c>
       <c r="L7" t="n">
-        <v>-7</v>
+        <v>272</v>
       </c>
       <c r="M7" t="n">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="N7" t="n">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="O7" t="n">
-        <v>-15</v>
+        <v>365</v>
       </c>
       <c r="P7" t="n">
-        <v>33</v>
+        <v>379</v>
       </c>
       <c r="Q7" t="n">
-        <v>-15</v>
+        <v>258</v>
       </c>
       <c r="R7" t="n">
-        <v>2474</v>
+        <v>4496</v>
       </c>
       <c r="S7" t="n">
-        <v>323</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8">
@@ -1987,58 +1987,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>240</v>
+        <v>453</v>
       </c>
       <c r="C8" t="n">
-        <v>302</v>
+        <v>395</v>
       </c>
       <c r="D8" t="n">
-        <v>275</v>
+        <v>395</v>
       </c>
       <c r="E8" t="n">
-        <v>207</v>
+        <v>374</v>
       </c>
       <c r="F8" t="n">
-        <v>239</v>
+        <v>445</v>
       </c>
       <c r="G8" t="n">
-        <v>205</v>
+        <v>401</v>
       </c>
       <c r="H8" t="n">
-        <v>244</v>
+        <v>326</v>
       </c>
       <c r="I8" t="n">
-        <v>102</v>
+        <v>350</v>
       </c>
       <c r="J8" t="n">
-        <v>146</v>
+        <v>539</v>
       </c>
       <c r="K8" t="n">
-        <v>151</v>
+        <v>423</v>
       </c>
       <c r="L8" t="n">
-        <v>125</v>
+        <v>452</v>
       </c>
       <c r="M8" t="n">
-        <v>163</v>
+        <v>412</v>
       </c>
       <c r="N8" t="n">
-        <v>163</v>
+        <v>431</v>
       </c>
       <c r="O8" t="n">
-        <v>137</v>
+        <v>531</v>
       </c>
       <c r="P8" t="n">
-        <v>127</v>
+        <v>541</v>
       </c>
       <c r="Q8" t="n">
-        <v>102</v>
+        <v>326</v>
       </c>
       <c r="R8" t="n">
-        <v>2826</v>
+        <v>6468</v>
       </c>
       <c r="S8" t="n">
-        <v>302</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9">
@@ -2048,58 +2048,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226</v>
+        <v>385</v>
       </c>
       <c r="C9" t="n">
-        <v>262</v>
+        <v>395</v>
       </c>
       <c r="D9" t="n">
-        <v>323</v>
+        <v>401</v>
       </c>
       <c r="E9" t="n">
-        <v>167</v>
+        <v>346</v>
       </c>
       <c r="F9" t="n">
-        <v>223</v>
+        <v>407</v>
       </c>
       <c r="G9" t="n">
-        <v>173</v>
+        <v>361</v>
       </c>
       <c r="H9" t="n">
-        <v>208</v>
+        <v>320</v>
       </c>
       <c r="I9" t="n">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="J9" t="n">
-        <v>56</v>
+        <v>257</v>
       </c>
       <c r="K9" t="n">
-        <v>61</v>
+        <v>177</v>
       </c>
       <c r="L9" t="n">
-        <v>-7</v>
+        <v>212</v>
       </c>
       <c r="M9" t="n">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="N9" t="n">
-        <v>301</v>
+        <v>175</v>
       </c>
       <c r="O9" t="n">
-        <v>-15</v>
+        <v>251</v>
       </c>
       <c r="P9" t="n">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="Q9" t="n">
-        <v>-15</v>
+        <v>168</v>
       </c>
       <c r="R9" t="n">
-        <v>2474</v>
+        <v>4316</v>
       </c>
       <c r="S9" t="n">
-        <v>323</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10">
@@ -2109,58 +2109,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-146</v>
+        <v>259</v>
       </c>
       <c r="C10" t="n">
-        <v>-152</v>
+        <v>263</v>
       </c>
       <c r="D10" t="n">
-        <v>-151</v>
+        <v>261</v>
       </c>
       <c r="E10" t="n">
-        <v>-149</v>
+        <v>276</v>
       </c>
       <c r="F10" t="n">
-        <v>-183</v>
+        <v>277</v>
       </c>
       <c r="G10" t="n">
-        <v>-129</v>
+        <v>213</v>
       </c>
       <c r="H10" t="n">
-        <v>-168</v>
+        <v>226</v>
       </c>
       <c r="I10" t="n">
-        <v>-16</v>
+        <v>148</v>
       </c>
       <c r="J10" t="n">
-        <v>-222</v>
+        <v>303</v>
       </c>
       <c r="K10" t="n">
-        <v>-243</v>
+        <v>221</v>
       </c>
       <c r="L10" t="n">
-        <v>-181</v>
+        <v>246</v>
       </c>
       <c r="M10" t="n">
-        <v>-45</v>
+        <v>212</v>
       </c>
       <c r="N10" t="n">
-        <v>-11</v>
+        <v>249</v>
       </c>
       <c r="O10" t="n">
-        <v>-175</v>
+        <v>309</v>
       </c>
       <c r="P10" t="n">
-        <v>-199</v>
+        <v>271</v>
       </c>
       <c r="Q10" t="n">
-        <v>-243</v>
+        <v>148</v>
       </c>
       <c r="R10" t="n">
-        <v>-2170</v>
+        <v>3734</v>
       </c>
       <c r="S10" t="n">
-        <v>-11</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11">
@@ -2170,58 +2170,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-118</v>
+        <v>171</v>
       </c>
       <c r="C11" t="n">
-        <v>-110</v>
+        <v>107</v>
       </c>
       <c r="D11" t="n">
-        <v>-129</v>
+        <v>109</v>
       </c>
       <c r="E11" t="n">
-        <v>-127</v>
+        <v>174</v>
       </c>
       <c r="F11" t="n">
-        <v>-131</v>
+        <v>103</v>
       </c>
       <c r="G11" t="n">
-        <v>-131</v>
+        <v>85</v>
       </c>
       <c r="H11" t="n">
-        <v>-136</v>
+        <v>142</v>
       </c>
       <c r="I11" t="n">
-        <v>88</v>
+        <v>294</v>
       </c>
       <c r="J11" t="n">
-        <v>18</v>
+        <v>359</v>
       </c>
       <c r="K11" t="n">
-        <v>9</v>
+        <v>333</v>
       </c>
       <c r="L11" t="n">
-        <v>-5</v>
+        <v>298</v>
       </c>
       <c r="M11" t="n">
-        <v>87</v>
+        <v>354</v>
       </c>
       <c r="N11" t="n">
-        <v>147</v>
+        <v>317</v>
       </c>
       <c r="O11" t="n">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="P11" t="n">
-        <v>-9</v>
+        <v>353</v>
       </c>
       <c r="Q11" t="n">
-        <v>-136</v>
+        <v>85</v>
       </c>
       <c r="R11" t="n">
-        <v>-502</v>
+        <v>3574</v>
       </c>
       <c r="S11" t="n">
-        <v>147</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12">
@@ -2231,58 +2231,58 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>226</v>
+        <v>321</v>
       </c>
       <c r="C12" t="n">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="D12" t="n">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="E12" t="n">
-        <v>167</v>
+        <v>292</v>
       </c>
       <c r="F12" t="n">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="G12" t="n">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="H12" t="n">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="I12" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="J12" t="n">
-        <v>56</v>
+        <v>377</v>
       </c>
       <c r="K12" t="n">
-        <v>61</v>
+        <v>263</v>
       </c>
       <c r="L12" t="n">
-        <v>-7</v>
+        <v>272</v>
       </c>
       <c r="M12" t="n">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="N12" t="n">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="O12" t="n">
-        <v>-15</v>
+        <v>365</v>
       </c>
       <c r="P12" t="n">
-        <v>33</v>
+        <v>379</v>
       </c>
       <c r="Q12" t="n">
-        <v>-15</v>
+        <v>258</v>
       </c>
       <c r="R12" t="n">
-        <v>2474</v>
+        <v>4496</v>
       </c>
       <c r="S12" t="n">
-        <v>323</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13">
@@ -2292,58 +2292,58 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152</v>
+        <v>319</v>
       </c>
       <c r="C13" t="n">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="D13" t="n">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="E13" t="n">
-        <v>105</v>
+        <v>346</v>
       </c>
       <c r="F13" t="n">
-        <v>137</v>
+        <v>285</v>
       </c>
       <c r="G13" t="n">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="H13" t="n">
-        <v>142</v>
+        <v>282</v>
       </c>
       <c r="I13" t="n">
-        <v>144</v>
+        <v>350</v>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>473</v>
       </c>
       <c r="K13" t="n">
-        <v>83</v>
+        <v>395</v>
       </c>
       <c r="L13" t="n">
-        <v>33</v>
+        <v>384</v>
       </c>
       <c r="M13" t="n">
-        <v>173</v>
+        <v>414</v>
       </c>
       <c r="N13" t="n">
-        <v>255</v>
+        <v>387</v>
       </c>
       <c r="O13" t="n">
-        <v>71</v>
+        <v>463</v>
       </c>
       <c r="P13" t="n">
-        <v>63</v>
+        <v>455</v>
       </c>
       <c r="Q13" t="n">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="R13" t="n">
-        <v>1970</v>
+        <v>5344</v>
       </c>
       <c r="S13" t="n">
-        <v>255</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14">
@@ -2353,58 +2353,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="C14" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D14" t="n">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E14" t="n">
-        <v>167</v>
+        <v>346</v>
       </c>
       <c r="F14" t="n">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="G14" t="n">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="H14" t="n">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="I14" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="J14" t="n">
-        <v>56</v>
+        <v>473</v>
       </c>
       <c r="K14" t="n">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="L14" t="n">
-        <v>-7</v>
+        <v>384</v>
       </c>
       <c r="M14" t="n">
-        <v>243</v>
+        <v>414</v>
       </c>
       <c r="N14" t="n">
-        <v>301</v>
+        <v>387</v>
       </c>
       <c r="O14" t="n">
-        <v>-15</v>
+        <v>463</v>
       </c>
       <c r="P14" t="n">
-        <v>33</v>
+        <v>455</v>
       </c>
       <c r="Q14" t="n">
-        <v>-15</v>
+        <v>233</v>
       </c>
       <c r="R14" t="n">
-        <v>2474</v>
+        <v>5344</v>
       </c>
       <c r="S14" t="n">
-        <v>323</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15">
@@ -2414,58 +2414,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="C15" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D15" t="n">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E15" t="n">
-        <v>167</v>
+        <v>346</v>
       </c>
       <c r="F15" t="n">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="G15" t="n">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="H15" t="n">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="I15" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="J15" t="n">
-        <v>56</v>
+        <v>473</v>
       </c>
       <c r="K15" t="n">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="L15" t="n">
-        <v>-7</v>
+        <v>384</v>
       </c>
       <c r="M15" t="n">
-        <v>243</v>
+        <v>414</v>
       </c>
       <c r="N15" t="n">
-        <v>301</v>
+        <v>387</v>
       </c>
       <c r="O15" t="n">
-        <v>-15</v>
+        <v>463</v>
       </c>
       <c r="P15" t="n">
-        <v>33</v>
+        <v>455</v>
       </c>
       <c r="Q15" t="n">
-        <v>-15</v>
+        <v>233</v>
       </c>
       <c r="R15" t="n">
-        <v>2474</v>
+        <v>5344</v>
       </c>
       <c r="S15" t="n">
-        <v>323</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16">
@@ -2475,58 +2475,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C16" t="n">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="D16" t="n">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="E16" t="n">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="F16" t="n">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G16" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H16" t="n">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="I16" t="n">
-        <v>220</v>
+        <v>328</v>
       </c>
       <c r="J16" t="n">
-        <v>56</v>
+        <v>399</v>
       </c>
       <c r="K16" t="n">
-        <v>61</v>
+        <v>349</v>
       </c>
       <c r="L16" t="n">
-        <v>-7</v>
+        <v>312</v>
       </c>
       <c r="M16" t="n">
-        <v>243</v>
+        <v>366</v>
       </c>
       <c r="N16" t="n">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="O16" t="n">
-        <v>-15</v>
+        <v>417</v>
       </c>
       <c r="P16" t="n">
-        <v>33</v>
+        <v>409</v>
       </c>
       <c r="Q16" t="n">
-        <v>-15</v>
+        <v>183</v>
       </c>
       <c r="R16" t="n">
-        <v>2474</v>
+        <v>4460</v>
       </c>
       <c r="S16" t="n">
-        <v>323</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17">
@@ -2536,58 +2536,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>226</v>
+        <v>319</v>
       </c>
       <c r="C17" t="n">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D17" t="n">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="E17" t="n">
-        <v>167</v>
+        <v>346</v>
       </c>
       <c r="F17" t="n">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="G17" t="n">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="H17" t="n">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="I17" t="n">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="J17" t="n">
-        <v>56</v>
+        <v>473</v>
       </c>
       <c r="K17" t="n">
-        <v>61</v>
+        <v>395</v>
       </c>
       <c r="L17" t="n">
-        <v>-7</v>
+        <v>384</v>
       </c>
       <c r="M17" t="n">
-        <v>243</v>
+        <v>414</v>
       </c>
       <c r="N17" t="n">
-        <v>301</v>
+        <v>387</v>
       </c>
       <c r="O17" t="n">
-        <v>-15</v>
+        <v>463</v>
       </c>
       <c r="P17" t="n">
-        <v>33</v>
+        <v>455</v>
       </c>
       <c r="Q17" t="n">
-        <v>-15</v>
+        <v>233</v>
       </c>
       <c r="R17" t="n">
-        <v>2474</v>
+        <v>5344</v>
       </c>
       <c r="S17" t="n">
-        <v>323</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
